--- a/Policy-Landscape/nsw-digital-policy-landscape.xlsx
+++ b/Policy-Landscape/nsw-digital-policy-landscape.xlsx
@@ -251,6 +251,11 @@
           <t>https://www.legislation.nsw.gov.au/acts/2013-40.pdf</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Government Sector Employment Act 2013</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Public Service Commission|Premier and Cabinet</t>
@@ -340,11 +345,16 @@
           <t>NSW Government Cyber Security Strategy</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NSW Government Brand Guidelines (2017)</t>
+          <t>NSW Government Brand Guidelines</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -399,6 +409,11 @@
           <t>https://www.google.com.au/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=2&amp;cad=rja&amp;uact=8&amp;ved=0ahUKEwia1eL2uvXSAhUEHGMKHVXYA5AQFggiMAE&amp;url=http%3A%2F%2Fwww.legislation.nsw.gov.au%2Finforce%2Fe20f1d11-6a0d-ec9a-fe79-d31ae57c52c3%2F2010-127.pdf&amp;usg=AFQjCNFQHR06D6_4ZIUvStvVfBTdVEvowA&amp;sig2=bWbNRf_Rx9S_9BuOjLtndA</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Public Health Act 2010 (NSW)</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Health</t>
@@ -467,46 +482,56 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Family and Community Services</t>
+          <t>Legislation as Code Policy</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Owner</t>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Digital Government</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>In development</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Finance, Services and Innovation</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Whole of Government</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ICT Assurance Framework</t>
+          <t>Family and Community Services</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Policy</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ICT Investment|Procurement</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Finance, Services and Innovation</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Whole of Government</t>
+          <t>Owner</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Domain registration and maintenance</t>
+          <t>ICT Assurance Framework</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -516,34 +541,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>ICT Investment|Procurement</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://communications.dpc.nsw.gov.au/digital/nsw-gov-au-domain-names/</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NSW Government Advertising Act 2011</t>
+          <t>https://www.digital.nsw.gov.au/sites/default/files/NSW%20ICT%20Assurance%20Framework%20-%20Final.pdf</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Premier and Cabinet</t>
+          <t>Finance, Services and Innovation</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>Whole of Government</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Data and Information Asset Management</t>
+          <t>Domain Registration and Maintenance Policy</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -553,24 +578,34 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Website</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://communications.dpc.nsw.gov.au/digital/nsw-gov-au-domain-names/</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NSW Government Advertising Act 2011</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Transport for NSW</t>
+          <t>Premier and Cabinet</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Transport for NSW</t>
+          <t>Whole of Government</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Standard Technology Product Aquisition</t>
+          <t>Data and Information Asset Management Policy</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -580,39 +615,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ICT Investment</t>
+          <t>Data</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www1.health.nsw.gov.au/pds/Pages/doc.aspx?dn=PD2010_047</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t/>
+          <t>https://www.transport.nsw.gov.au/system/files/media/documents/2017/data-and-information-asset-management-policy_0.pdf</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Transport for NSW</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Department only|Health</t>
+          <t>Transport for NSW</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Outcome Budgeting</t>
+          <t>Standard Technology Product Aquisition Policy</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -622,34 +652,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ICT Investment|Data|Accountability|Investment</t>
+          <t>ICT Investment</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.treasury.nsw.gov.au/budget-financial-management/reform/outcome-budgeting</t>
+          <t>https://www1.health.nsw.gov.au/pds/Pages/doc.aspx?dn=PD2010_047</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Treasury</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Whole of Government</t>
+          <t>Department only|Health</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Emerging Technology Framework</t>
+          <t>Outcome Budgeting</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -659,24 +694,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Emerging Technology</t>
+          <t>ICT Investment|Data|Accountability|Investment|Outcomes</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.treasury.nsw.gov.au/budget-financial-management/reform/outcome-budgeting</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Government Sector Finance Act 2018</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Finance, Services and Innovation</t>
+          <t>Treasury</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>Whole of Government</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Asset Management Policy for the NSW Public Sector</t>
+          <t>Emerging Technology Framework</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -686,17 +736,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ICT Investment|Procurement</t>
+          <t>Emerging Technology</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>In development</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Treasury</t>
+          <t>Finance, Services and Innovation</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>Whole of Government</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2019</t>
         </is>
       </c>
     </row>
@@ -728,7 +788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Department only|Health</t>
+          <t>Department only|Industry</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -787,7 +847,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Capital Planning</t>
+          <t>Capital Planning|ICT Investment|ICT</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.treasury.nsw.gov.au/information-public-entities/capital-planning</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -804,7 +869,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Internet of Things</t>
+          <t>Internet of Things Framework</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -817,6 +882,11 @@
           <t>Emerging Technology|Infrastructure|Procurement</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>In development</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>Finance, Services and Innovation</t>
@@ -830,6 +900,11 @@
       <c r="I23" t="inlineStr">
         <is>
           <t>State Infrastructure Strategy</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2019</t>
         </is>
       </c>
     </row>
@@ -846,12 +921,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Information|Accountability|Standards</t>
+          <t>Information|Accountability|Standards|Data</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>https://www.records.nsw.gov.au/sites/default/files/Recordkeeping/Implementation%20Guide%20June%202018.pdf</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>State Records Act</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -873,7 +953,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Corporate Plan</t>
+          <t>Corporate Plan 2017-2020</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -886,6 +966,11 @@
           <t>Strategy</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.justice.nsw.gov.au/Documents/department-of-justice-corporate-plan.pdf</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>Justice</t>
@@ -898,7 +983,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Corporate Plan</t>
+          <t>Corporate Plan 2017-2020</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2017</t>
         </is>
       </c>
     </row>
@@ -971,7 +1061,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Road Safety</t>
+          <t>Road Safety Strategy 2012-2021</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -984,6 +1074,11 @@
           <t>Strategy</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://roadsafety.transport.nsw.gov.au/downloads/road_safety_strategy.pdf</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>Transport for NSW</t>
@@ -996,7 +1091,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Road Safety</t>
+          <t>Road Safety Strategy 2012-2021</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2012</t>
         </is>
       </c>
     </row>
@@ -1013,12 +1113,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Outcomes|Accountability</t>
+          <t>Outcomes|Accountability|Ethics</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.finance.nsw.gov.au/sites/default/files/guidelines_for_engagement_with_nsw_human_services_non-government_organisations.pdf</t>
+          <t>https://www.finance.nsw.gov.au/human_services</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1029,13 +1129,18 @@
       <c r="H30" t="inlineStr">
         <is>
           <t>Whole of Government</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>The Code of Ethics and Conduct for NSW government sector employees</t>
+          <t>The Code of Ethics and Conduct for NSW Government Sector Employees</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1080,6 +1185,11 @@
           <t>Data|Open Data|Shared Data</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.digital.nsw.gov.au/sites/default/files/NSW%20Government%20Information%20Classification%20Labelling%20and%20Handling%20Guidelines%20V.2.2_0.pdf</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>Finance, Services and Innovation</t>
@@ -1088,6 +1198,11 @@
       <c r="H32" t="inlineStr">
         <is>
           <t>Whole of Government</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2015</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1246,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Service NSW 2017/2018 Strategy</t>
+          <t>Service NSW Strategy 2017-2018</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1152,6 +1267,11 @@
       <c r="H34" t="inlineStr">
         <is>
           <t>Department only|Finance, Services and Innovation</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Service NSW Strategy 2017-2018</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1197,7 +1317,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cloud|Shared Data</t>
+          <t>Cloud|Shared Data|ICT</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.digital.nsw.gov.au/policy/buying-ict/cloud-policy</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1208,6 +1333,11 @@
       <c r="H37" t="inlineStr">
         <is>
           <t>Whole of Government</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1386,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Open Data</t>
+          <t>Open Data Policy</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1276,7 +1406,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NSW Government Information (Public Access) Act</t>
+          <t>The Government Information (Public Access) Act 2009 (NSW) (GIPA Act)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1298,7 +1428,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cyber Security</t>
+          <t>Cyber Security Policy</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1308,7 +1438,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cyber|Data</t>
+          <t>Cyber|Data|Security|ICT</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.digital.nsw.gov.au/policy/cyber-security/cyber-security-policy</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1324,13 +1459,18 @@
       <c r="I40" t="inlineStr">
         <is>
           <t>NSW Government Cyber Security Strategy</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Open Data (TfNSW)</t>
+          <t>Open Data Policy (TfNSW)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1343,6 +1483,11 @@
           <t>Data|Open Data</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.transport.nsw.gov.au/system/files/media/documents/2017/open-data-policy.pdf</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>Transport for NSW</t>
@@ -1351,6 +1496,11 @@
       <c r="H41" t="inlineStr">
         <is>
           <t>Department only|Transport for NSW</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -1510,145 +1660,170 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Legislation as Code</t>
+          <t>Planning and Environment</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Policy</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Digital Government</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Finance, Services and Innovation</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Whole of Government</t>
+          <t>Owner</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Planning and Environment</t>
+          <t>The Privacy and Personal Information Protection Act 1998 (PPIP Act)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Owner</t>
+          <t>Legislation</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Privacy|Accountability|Data|Information</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>http://www.legislation.nsw.gov.au/#/view/act/1998/133</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>The Privacy and Personal Information Protection Act 1998 (PPIP Act)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Justice|Information and Privacy Commission</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Whole of Government</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1998</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>The Privacy and Personal Information Protection Act 1998 (PPIP Act)</t>
+          <t>eHealth Strategy for NSW Health 2016-2019</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Legislation</t>
+          <t>Strategy</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Privacy|Accountability|Data|Information</t>
+          <t>Strategy</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.legislation.nsw.gov.au/#/view/act/1998/133</t>
+          <t>https://www.health.nsw.gov.au/ehealth/documents/ehealth-strategy-for-nsw-health-2016-2026.pdf</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Justice|Information and Privacy Commission</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Whole of Government</t>
+          <t>Department only|Health</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>eHealth Strategy for NSW Health 2016-2019</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>eHealth Strategy for NSW Health 2016-2019</t>
+          <t>The Government Information (Public Access) Act 2009 (NSW) (GIPA Act)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Strategy</t>
+          <t>Legislation</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Strategy</t>
+          <t>Information|Privacy|Accountability|Data|Open Data</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.health.nsw.gov.au/ehealth/documents/ehealth-strategy-for-nsw-health-2016-2026.pdf</t>
+          <t>https://www.google.com.au/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=1&amp;cad=rja&amp;uact=8&amp;ved=0ahUKEwjMv5W8n7TSAhUEkpQKHfQBCJ0QFggbMAA&amp;url=http%3A%2F%2Fwww.austlii.edu.au%2Fau%2Flegis%2Fnsw%2Fconsol_act%2Fgiaa2009368%2F&amp;usg=AFQjCNHHguHhFik4v6oUh-tXozZs_2LxOA&amp;sig2=UV8KqIgI0tuSkpJv2FvTQg</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>The Government Information (Public Access) Act 2009 (NSW) (GIPA Act)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Justice|Information and Privacy Commission</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Department only|Health</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>eHealth Strategy for NSW Health 2016-2019</t>
+          <t>Whole of Government</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2009</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>The Government Information (Public Access) Act 2009 (NSW) (GIPA Act)</t>
+          <t>Web Content Accessibility Guidelines (WCAG)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Legislation</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Information|Privacy|Accountability|Data|Open Data</t>
+          <t>Website|Accessibility</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.google.com.au/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=1&amp;cad=rja&amp;uact=8&amp;ved=0ahUKEwjMv5W8n7TSAhUEkpQKHfQBCJ0QFggbMAA&amp;url=http%3A%2F%2Fwww.austlii.edu.au%2Fau%2Flegis%2Fnsw%2Fconsol_act%2Fgiaa2009368%2F&amp;usg=AFQjCNHHguHhFik4v6oUh-tXozZs_2LxOA&amp;sig2=UV8KqIgI0tuSkpJv2FvTQg</t>
+          <t>https://communications.dpc.nsw.gov.au/digital/website-accessibility-wcag/</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NSW Government Advertising Act 2011</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Justice|Information and Privacy Commission</t>
+          <t>Premier and Cabinet</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -1658,14 +1833,14 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2008</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Website accessibility (WCAG)</t>
+          <t>Data Collections - Process for Approval of New or Modified</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1675,34 +1850,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Website|Accessibility</t>
+          <t>Data</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://communications.dpc.nsw.gov.au/digital/website-accessibility-wcag/</t>
+          <t>https://www1.health.nsw.gov.au/pds/Pages/doc.aspx?dn=PD2005_155</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NSW Government Advertising Act 2011</t>
+          <t/>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Premier and Cabinet</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Whole of Government</t>
+          <t>Department only|Health</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2005</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Data Collections - Process for Approval of New or Modified</t>
+          <t>Information Management Framework</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1712,39 +1892,34 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Data|Open Data|Shared Data</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www1.health.nsw.gov.au/pds/Pages/doc.aspx?dn=PD2005_155</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t/>
+          <t>https://www.digital.nsw.gov.au/sites/default/files/IM%20Framework%20infographic_0.pdf</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Finance, Services and Innovation</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Department only|Health</t>
+          <t>Whole of Government</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Information Management Framework</t>
+          <t>Digital Accessibility Standards</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1754,34 +1929,34 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Data|Open Data|Shared Data</t>
+          <t>Design|Standards</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.digital.nsw.gov.au/policy/data-information/managing-data-information</t>
+          <t>https://www.facs.nsw.gov.au/accessibility/digital-standard</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Finance, Services and Innovation</t>
+          <t>Family and Community Services</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Whole of Government</t>
+          <t>Department only|Family and Community Services</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Digital Accessibility Standards</t>
+          <t>NSW Prenatal Data Collection (PDC) Reporting and Submission Requirements</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1791,81 +1966,96 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Design|Standards</t>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www1.health.nsw.gov.au/pds/Pages/doc.aspx?dn=PD2015_025</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Family and Community Services</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Department only|Family and Community Services</t>
+          <t>Department only|Health</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2005</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NSW Prenatal Data Collection (PDC) Reporting and Submission Requirements</t>
+          <t>The Health Records and Information Privacy Act (HRIP Act)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Legislation</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Accountability|Information|Data|Privacy</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www1.health.nsw.gov.au/pds/Pages/doc.aspx?dn=PD2015_025</t>
+          <t>http://www.legislation.nsw.gov.au/#/view/act/2002/71</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>The Health Records and Information Privacy Act (HRIP Act)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Justice|Information and Privacy Commission</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Department only|Health</t>
+          <t>Whole of Government</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2002</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>The Health Records and Information Privacy Act (HRIP Act)</t>
+          <t>Digital Design System</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Legislation</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Accountability|Information|Data|Privacy</t>
+          <t>Standards|Design</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.legislation.nsw.gov.au/#/view/act/2002/71</t>
+          <t>https://www.digital.nsw.gov.au/digital-design-system</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Justice|Information and Privacy Commission</t>
+          <t>Finance, Services and Innovation</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -1875,14 +2065,14 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Digital Service Standards</t>
+          <t>NSW Foundation Spatial Data Framework</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1892,7 +2082,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Standards|Design</t>
+          <t>Data|Open Data|Shared Data</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>http://spatialservices.finance.nsw.gov.au/__data/assets/pdf_file/0006/219282/NSW_Foundation_Spatial_Data_Framework_-_small.pdf</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -1903,13 +2098,18 @@
       <c r="H57" t="inlineStr">
         <is>
           <t>Whole of Government</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Foundation Spatial Data Framework</t>
+          <t>Disclosure of Unit Record for Research or Management of Health Services</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1919,249 +2119,294 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Data|Open Data|Shared Data</t>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www1.health.nsw.gov.au/pds/Pages/doc.aspx?dn=PD2015_037</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Finance, Services and Innovation</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Whole of Government</t>
+          <t>Department only|Health</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disclosure of Unit Record for Research or Management of Health Services</t>
+          <t>Premier and Cabinet</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Policy</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://www1.health.nsw.gov.au/pds/Pages/doc.aspx?dn=PD2015_037</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Health</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Department only|Health</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>2015</t>
+          <t>Owner</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Premier and Cabinet</t>
+          <t>Whole of Government</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Owner</t>
+          <t>Policy Reach</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Whole of Government</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Whole of Government</t>
+          <t>NSW Digital Information Security Policy</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Policy Reach</t>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Data|Information|Accountability|Cyber</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.digital.nsw.gov.au/sites/default/files/Digital%20Information%20Security%20Policy%202015.pdf</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Finance, Services and Innovation</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
           <t>Whole of Government</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NSW Digital Information Security Policy</t>
+          <t>Justice</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Policy</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Data|Information|Accountability|Cyber</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://www.finance.nsw.gov.au/ict/priorities/managing-information-better-services/information-security</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Finance, Services and Innovation</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Whole of Government</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>2015</t>
+          <t>Owner</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Justice</t>
+          <t>Strategic Information Technology Plan 2016-2019</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Owner</t>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ICT Investment</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://education.nsw.gov.au/about-us/strategies-and-reports/media/documents/Strategic_IT_Plan_2016_19.pdf</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Department only|Education</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Strategic Information Technology Plan 2016-2019</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Strategic Information Technology Plan 2016-2019</t>
+          <t>Treasury</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Strategy</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>ICT Investment</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Education</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Department only|Education</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Strategic Information Technology Plan 2016-2019</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>2016</t>
+          <t>Owner</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Treasury</t>
+          <t>Emergency Department Data Dictionary</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Owner</t>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www1.health.nsw.gov.au/pds/Pages/doc.aspx?dn=PD2009_071</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Department only|Health</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2009</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Emergency Department Data Dictionary</t>
+          <t>Department Only</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Policy</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://www1.health.nsw.gov.au/pds/Pages/doc.aspx?dn=PD2009_071</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Health</t>
+          <t>Policy Reach</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Department only|Health</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>2009</t>
+          <t>Department only</t>
         </is>
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Telecommunications Procurement Policy</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Procurement</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://arp.nsw.gov.au/pbd-2014-03-telecommunications-procurement</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Finance, Services and Innovation</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Whole of Government</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Department Only</t>
+          <t>NSW Government Information Classification, Labelling and Handling Guidelines</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Policy Reach</t>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Information|Data|Privacy|Security</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://arp.nsw.gov.au/sites/default/files/NSW%20Government%20Information%20Classification%20Labelling%20and%20Handling%20Guidelines%20V.2.2%28DFSI%29.pdf</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Finance, Services and Innovation</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Department only</t>
+          <t>Whole of Government</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Telecommunications Procurement</t>
+          <t>Information Management Framework (IMF) - 2013 - Common Approach</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2171,7 +2416,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Procurement</t>
+          <t>Information|Data</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.digital.nsw.gov.au/sites/default/files/IM%20common%20approach%20v1.pdf</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2182,28 +2432,38 @@
       <c r="H69" t="inlineStr">
         <is>
           <t>Whole of Government</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NSW Government Information Classification, Labelling and Handling Guidelines</t>
+          <t>The Data Sharing (Government Sector) Act</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Legislation</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Information|Data|Privacy|Security</t>
+          <t>Accountability|Data|Open Data|Ethics</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://arp.nsw.gov.au/sites/default/files/NSW%20Government%20Information%20Classification%20Labelling%20and%20Handling%20Guidelines%20V.2.2%28DFSI%29.pdf</t>
+          <t>https://www.legislation.nsw.gov.au/#/view/act/2015/60/full</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>The Data Sharing (Government Sector) Act</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2225,7 +2485,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Information Management Framework (IMF) - 2013 - Common Approach</t>
+          <t>NSW Government Enterprise Architecture (NSW GEA)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2235,12 +2495,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Information|Data</t>
+          <t>ICT Investment|Procurement|Digital Government</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.digital.nsw.gov.au/sites/default/files/IM%20common%20approach%20v1.pdf</t>
+          <t>https://www.digital.nsw.gov.au/policy/ict-assurance/enterprise-architecture</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2251,82 +2511,92 @@
       <c r="H71" t="inlineStr">
         <is>
           <t>Whole of Government</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>The Data Sharing (Government Sector) Act</t>
+          <t>Information Sharing - NSW Health and DoCS - Opiod Treatment - Responsibility - Children Under 16</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Legislation</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Accountability|Data|Open Data|Ethics</t>
+          <t>Data</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.legislation.nsw.gov.au/#/view/act/2015/60/full</t>
+          <t>https://www1.health.nsw.gov.au/pds/Pages/doc.aspx?dn=PD2006_085</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Finance, Services and Innovation</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Whole of Government</t>
+          <t>Department only|Health</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2006</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IP Management Framework for the NSW Public Sector</t>
+          <t>Information Management Strategy 2015-2019</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Strategy</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Data|Shared Data</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://education.nsw.gov.au/about-us/strategies-and-reports/media/documents/DEC_Information_Management_Strategy_2015-2017.pdf</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Finance, Services and Innovation</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Whole of Government</t>
+          <t>Department only|Education</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Information Management Strategy 2015-2019</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Reference Architecture</t>
+          <t>Asset Management Policy</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2336,12 +2606,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ICT Investment|Procurement</t>
+          <t>Asset Management</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>http://treasury.nsw.gov.au/finance-resource/asset-management-policies</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Finance, Services and Innovation</t>
+          <t>Treasury|Infrastructure NSW</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -2351,175 +2626,42 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>State of ICT and Digital Government</t>
+          <t>State Infrastructure Strategy</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Information Sharing - NSW Health and DoCS - Opiod Treatment - Responsibility - Children Under 16</t>
+          <t>Future Transport Strategy</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Strategy</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Emerging Technology</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www1.health.nsw.gov.au/pds/Pages/doc.aspx?dn=PD2006_085</t>
+          <t>https://future.transport.nsw.gov.au/plans/future-transport-strategy</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Transport for NSW</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Department only|Health</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Information Management Strategy 2015-2019</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Strategy</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Data|Shared Data</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Education</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Department only|Education</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Information Management Strategy 2015-2019</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Asset Management policy</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Policy</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Asset Management</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>http://treasury.nsw.gov.au/finance-resource/asset-management-policies</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Treasury|Infrastructure NSW</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Whole of Government</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>State Infrastructure Strategy</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>ICT Procurement</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Policy</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Procurement</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Finance, Services and Innovation</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Whole of Government</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Future Transport Strategy</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Strategy</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Emerging Technology</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Transport for NSW</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
           <t>Department only|Transport for NSW</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>Future Transport Strategy</t>
         </is>
